--- a/tabelas/registro.xlsx
+++ b/tabelas/registro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,94 +454,654 @@
           <t>Estrutura</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>458575</t>
+          <t>['574825']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+          <t>['Call Center - Pesquisa de Satisfação (NPS) - Pós Manutenção']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/09/2023 16:44:31</t>
+          <t>['01/02/2024 16:52:40']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Não identificado</t>
-        </is>
+          <t>['Não identificado']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ALÇA AMARR BRANCA 6,8 - 7,4MM</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>458575</t>
+          <t>['574825']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+          <t>['Call Center - Pesquisa de Satisfação (NPS) - Pós Manutenção']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08/09/2023 16:44:31</t>
+          <t>['01/02/2024 16:52:40']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Não identificado</t>
-        </is>
+          <t>['Não identificado']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ALÇA AMARR BRANCA 6,8 - 7,4MM</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>496857</t>
+          <t>['574825']</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Suporte Técnico - Nível 4 (Externo) - MANUTENÇÃO FIBRA - LOG 0</t>
+          <t>['Call Center - Pesquisa de Satisfação (NPS) - Pós Manutenção']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27/10/2023 17:08:02</t>
+          <t>['01/02/2024 16:52:40']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
+          <t>['Não identificado']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MESA BISTRO REDONDA BRANCA</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>592013</t>
+          <t>['574825']</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ativações - Instalação Fibra 500 MB</t>
+          <t>['Call Center - Pesquisa de Satisfação (NPS) - Pós Manutenção']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22/02/2024 11:46:02</t>
+          <t>['01/02/2024 16:52:40']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>['Não identificado']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>REIDOSFP-PAR DE SFP +10G BIIDI MONOMODO TX/RX 1270/1330NM</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ADPTADOR SC/APC</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CAIXA DE TERMINAÇÃO OPTICA NAP NG</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MINI DIO EM AÇO12FO SC - PRETO COM ADAPTADOR</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RACK OUDOOR POSTE/PISO I55 12U X 600 X 600MM ALUMINIO</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DIO FIT AC -48F SC/APC SM 19 2U</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CAIXA DIO BOX FITA ADP 1X16 SC</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CAIXA FIBRACEM C/SPLITTER COMPLETA - VERDE</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ALÇA AMARR VERDE 10,90 - 11,8MM</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>485756</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Correção - Assinatura de Contrato</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54:39</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ALÇA AMARR VERDE 10,90 - 11,8MM</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ALÇA AMARR BRANCA 6,8 - 7,4MM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CAIXA FIBRACEM C/SPLITTER COMPLETA - VERDE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DIO FIT AC - 36F SC/APC SM 19 2U</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KIT PRENSA CABO RACK -PG 21 CC/P +PG 16 CC/P</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>458575</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Financeiro - Auditar Ficha Financeira /Ativação -Novo Cliente</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08/09/2023 16:44:31</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
